--- a/updated_celtic_project-main/src/test/resources/DataProvider/RWC.xlsx
+++ b/updated_celtic_project-main/src/test/resources/DataProvider/RWC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\updated_celtic_project-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9DBBE8-D2D9-4EED-8BE2-2F1962F8C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2268E5-D7E6-4659-8449-DD6DD585C230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="6" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775FA5FC-25F4-4C8C-A1CF-D1415B6123E3}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4609,7 +4609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40042B2-BF90-46A5-A720-AE7134173A42}">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/updated_celtic_project-main/src/test/resources/DataProvider/RWC.xlsx
+++ b/updated_celtic_project-main/src/test/resources/DataProvider/RWC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\updated_celtic_project-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2268E5-D7E6-4659-8449-DD6DD585C230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7A6216-20F2-45E8-B356-D96B06A488E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="6" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="341">
   <si>
     <t>Fleet Expiration Year</t>
   </si>
@@ -1072,6 +1072,9 @@
   </si>
   <si>
     <t>BM4214241</t>
+  </si>
+  <si>
+    <t>30810</t>
   </si>
 </sst>
 </file>
@@ -1560,19 +1563,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775FA5FC-25F4-4C8C-A1CF-D1415B6123E3}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" customWidth="1"/>
     <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="85.5">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="42.75">
       <c r="A1" s="2" t="s">
         <v>299</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>232</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>42</v>
@@ -1608,10 +1612,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>42</v>
@@ -1628,7 +1632,7 @@
         <v>232</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>42</v>
@@ -1700,6 +1704,23 @@
         <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4214,59 +4235,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF704C85-D873-414A-AA0E-281E6DD1C08A}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="57">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4274,31 +4296,31 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="N2" s="5" t="s">
         <v>74</v>
       </c>
@@ -4307,31 +4329,37 @@
       <c r="A3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>79</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -4345,12 +4373,12 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4609,7 +4637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40042B2-BF90-46A5-A720-AE7134173A42}">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
